--- a/Phân tích/Yêu cầu tiến hóa.xlsx
+++ b/Phân tích/Yêu cầu tiến hóa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Dropbox\My PC (LAPTOP-3KL3D18R)\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8506E1DD-789A-4D7B-AD4E-1879DDBE5EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97070FC-669F-4A7E-939A-1CC3BAB08FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{F4E7AD5E-6F19-41A6-94D9-4E1DE31F9B9C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{F4E7AD5E-6F19-41A6-94D9-4E1DE31F9B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>Yêu cầu tiến hóa</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>- Cập nhật thông tin nhân viên</t>
-  </si>
-  <si>
-    <t>- Chấm công</t>
   </si>
   <si>
     <t>- Tính lương</t>
@@ -592,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38329E6-A122-4E61-A4FC-4BEED18E0F6C}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -617,7 +614,7 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -634,10 +631,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -646,13 +643,13 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -692,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -701,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -728,11 +725,20 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="1">
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -755,7 +761,7 @@
         <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -765,20 +771,11 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
       <c r="E9" s="1">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -788,11 +785,20 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="1">
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -802,20 +808,11 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="1">
         <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -823,13 +820,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -837,28 +840,31 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="1">
         <v>12</v>
       </c>
@@ -866,20 +872,20 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="29.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="1">
@@ -888,23 +894,15 @@
       <c r="F15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29.25">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="C16" s="5"/>
       <c r="E16" s="1">
         <v>14</v>
       </c>
@@ -919,7 +917,6 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5"/>
       <c r="E17" s="1">
         <v>15</v>
       </c>
@@ -1046,11 +1043,20 @@
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
       <c r="E26" s="1">
         <v>24</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1060,20 +1066,11 @@
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
       <c r="E27" s="1">
         <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1111,11 +1108,20 @@
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
       <c r="E30" s="1">
         <v>28</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1125,58 +1131,49 @@
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
+      <c r="C31" s="5"/>
       <c r="E31" s="1">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:8" ht="30">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E32" s="1">
         <v>30</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="30">
+      <c r="G32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="E33" s="1">
         <v>31</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1186,71 +1183,57 @@
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
       <c r="E34" s="1">
         <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1">
-        <v>34</v>
-      </c>
-      <c r="F35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>46</v>
-      </c>
       <c r="E36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="1">
-        <v>36</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
